--- a/BackTest/2020-01-23 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-23 BackTest WAVES.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N110"/>
+  <dimension ref="A1:M110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-14798.2107</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-14979.6106</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-14979.6106</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,22 +682,15 @@
         <v>-16458.3123</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>988.1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>988.1</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -750,22 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>988.1</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -792,22 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>988.1</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -834,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -868,22 +814,15 @@
         <v>-16782.5878</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>984.2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>984.2</v>
-      </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -910,22 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>984.2</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -952,22 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>984.2</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -994,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1030,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1066,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1102,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1138,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1174,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1210,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1246,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1282,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1318,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1354,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1390,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1426,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1462,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1498,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1534,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1570,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1606,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1642,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1678,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1714,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1750,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1786,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1822,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1858,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1894,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1930,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1966,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2000,18 +1837,19 @@
         <v>-17790.8579</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
+        <v>991</v>
+      </c>
+      <c r="J44" t="n">
+        <v>991</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2036,18 +1874,23 @@
         <v>-18280.2192</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+        <v>995.9</v>
+      </c>
+      <c r="J45" t="n">
+        <v>991</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2072,18 +1915,23 @@
         <v>-18279.7092</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+        <v>989.3</v>
+      </c>
+      <c r="J46" t="n">
+        <v>991</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2108,18 +1956,23 @@
         <v>-18360.1066</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+        <v>995.8</v>
+      </c>
+      <c r="J47" t="n">
+        <v>991</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2146,16 +1999,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>991</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2182,16 +2038,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>991</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2218,16 +2077,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>991</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2254,16 +2116,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>991</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2290,16 +2155,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>991</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2326,16 +2194,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>991</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2362,16 +2233,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>991</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2398,16 +2272,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>991</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2434,16 +2311,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>991</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2470,16 +2350,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>991</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2506,16 +2389,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>991</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2542,16 +2428,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>991</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2578,16 +2467,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>991</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2614,16 +2506,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>991</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2650,16 +2545,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>991</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2686,16 +2584,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>991</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2722,16 +2623,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>991</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2758,16 +2662,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>991</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2794,16 +2701,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>991</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2830,16 +2740,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>991</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2864,18 +2777,21 @@
         <v>-18485.1539</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>991</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1.002063572149344</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2902,16 +2818,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2938,16 +2851,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2974,16 +2884,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3008,18 +2915,15 @@
         <v>-20048.9386</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3046,16 +2950,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3080,18 +2981,15 @@
         <v>-20843.3451</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3118,16 +3016,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3154,16 +3049,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3190,16 +3082,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3226,16 +3115,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3262,16 +3148,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3296,18 +3179,15 @@
         <v>-20038.4142</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3334,16 +3214,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3370,16 +3247,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3406,16 +3280,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3442,16 +3313,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3478,16 +3346,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3514,16 +3379,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3550,16 +3412,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3586,16 +3445,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3622,16 +3478,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3658,16 +3511,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3694,16 +3544,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3730,16 +3577,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3766,16 +3610,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3802,16 +3643,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3838,16 +3676,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3874,16 +3709,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3910,16 +3742,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3944,24 +3773,15 @@
         <v>-19206.3285</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>991</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3986,24 +3806,15 @@
         <v>-19206.3285</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4030,20 +3841,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4068,24 +3872,15 @@
         <v>-24641.96</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>991</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4112,22 +3907,13 @@
       <c r="H102" t="n">
         <v>1</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>992</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4154,22 +3940,13 @@
       <c r="H103" t="n">
         <v>1</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>992</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4196,22 +3973,13 @@
       <c r="H104" t="n">
         <v>1</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>992</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4238,22 +4006,13 @@
       <c r="H105" t="n">
         <v>1</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>992</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4280,22 +4039,13 @@
       <c r="H106" t="n">
         <v>1</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>992</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4322,22 +4072,13 @@
       <c r="H107" t="n">
         <v>1</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>992</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4364,22 +4105,13 @@
       <c r="H108" t="n">
         <v>1</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>992</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4404,24 +4136,15 @@
         <v>-26938.7073</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>991</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4446,26 +4169,17 @@
         <v>-30045.054</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-23 BackTest WAVES.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>-14798.2107</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-14979.6106</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-14979.6106</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-16017.7423</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-16458.3123</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-16458.3123</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-16458.3123</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -1837,14 +1837,10 @@
         <v>-17790.8579</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>991</v>
-      </c>
-      <c r="J44" t="n">
-        <v>991</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
@@ -1874,19 +1870,11 @@
         <v>-18280.2192</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>995.9</v>
-      </c>
-      <c r="J45" t="n">
-        <v>991</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1915,19 +1903,11 @@
         <v>-18279.7092</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>989.3</v>
-      </c>
-      <c r="J46" t="n">
-        <v>991</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1956,19 +1936,11 @@
         <v>-18360.1066</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>995.8</v>
-      </c>
-      <c r="J47" t="n">
-        <v>991</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2000,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>991</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2039,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>991</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2078,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>991</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2117,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>991</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2156,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>991</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2195,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>991</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2234,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>991</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2273,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>991</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2312,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>991</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2351,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>991</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2390,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>991</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2429,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>991</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2468,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>991</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2507,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>991</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2546,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>991</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2585,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>991</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2624,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>991</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2663,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>991</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2702,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>991</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2741,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>991</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2777,19 +2629,13 @@
         <v>-18485.1539</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>991</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
-        <v>1.002063572149344</v>
+        <v>1</v>
       </c>
       <c r="M68" t="inlineStr"/>
     </row>
@@ -2915,7 +2761,7 @@
         <v>-20048.9386</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2981,7 +2827,7 @@
         <v>-20843.3451</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3179,7 +3025,7 @@
         <v>-20038.4142</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3907,8 +3753,12 @@
       <c r="H102" t="n">
         <v>1</v>
       </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>992</v>
+      </c>
+      <c r="J102" t="n">
+        <v>992</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
@@ -3940,9 +3790,17 @@
       <c r="H103" t="n">
         <v>1</v>
       </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>992</v>
+      </c>
+      <c r="J103" t="n">
+        <v>992</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3971,11 +3829,17 @@
         <v>-24641.96</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>992</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4006,8 +3870,12 @@
       <c r="H105" t="n">
         <v>1</v>
       </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>992</v>
+      </c>
+      <c r="J105" t="n">
+        <v>992</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
@@ -4039,9 +3907,17 @@
       <c r="H106" t="n">
         <v>1</v>
       </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>992</v>
+      </c>
+      <c r="J106" t="n">
+        <v>992</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4072,9 +3948,17 @@
       <c r="H107" t="n">
         <v>1</v>
       </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>992</v>
+      </c>
+      <c r="J107" t="n">
+        <v>992</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4105,8 +3989,12 @@
       <c r="H108" t="n">
         <v>1</v>
       </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>992</v>
+      </c>
+      <c r="J108" t="n">
+        <v>992</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
@@ -4136,11 +4024,19 @@
         <v>-26938.7073</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>991</v>
+      </c>
+      <c r="J109" t="n">
+        <v>992</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4169,17 +4065,25 @@
         <v>-30045.054</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>992</v>
+      </c>
+      <c r="J110" t="n">
+        <v>992</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
       <c r="M110" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-23 BackTest WAVES.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>-14798.2107</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-14979.6106</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-14979.6106</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-16017.7423</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-16458.3123</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-16458.3123</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-16458.3123</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-17644.7985</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-18787.1834</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-17948.4026</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-17948.4026</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-17719.9241</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-17719.9241</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-16930.5176</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-17062.10749999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-18280.2192</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-18851.8541</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-18580.7728</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-18580.7728</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-20038.4142</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-20521.466</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-20520.966</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-22450.375</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3751,14 +3751,10 @@
         <v>-24641.96</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>992</v>
-      </c>
-      <c r="J102" t="n">
-        <v>992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
@@ -3788,19 +3784,11 @@
         <v>-24641.96</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>992</v>
-      </c>
-      <c r="J103" t="n">
-        <v>992</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3832,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>992</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3868,14 +3850,10 @@
         <v>-24641.96</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>992</v>
-      </c>
-      <c r="J105" t="n">
-        <v>992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
@@ -3905,19 +3883,11 @@
         <v>-24641.96</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>992</v>
-      </c>
-      <c r="J106" t="n">
-        <v>992</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3946,19 +3916,11 @@
         <v>-24641.96</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>992</v>
-      </c>
-      <c r="J107" t="n">
-        <v>992</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3987,14 +3949,10 @@
         <v>-26942.9576</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>992</v>
-      </c>
-      <c r="J108" t="n">
-        <v>992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
@@ -4030,13 +3988,9 @@
         <v>991</v>
       </c>
       <c r="J109" t="n">
-        <v>992</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>991</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4065,13 +4019,11 @@
         <v>-30045.054</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4084,6 +4036,6 @@
       <c r="M110" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-23 BackTest WAVES.xlsx
@@ -517,7 +517,7 @@
         <v>-14979.6106</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-17644.7985</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-18787.1834</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-17948.4026</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-17948.4026</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-17719.9241</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-17719.9241</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-16930.5176</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-17062.10749999999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-18280.2192</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-18851.8541</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-18580.7728</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-18580.7728</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-20048.9386</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-20038.4142</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-20521.466</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-20520.966</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3454,11 +3454,17 @@
         <v>-22540.375</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>995.6</v>
+      </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3493,17 @@
         <v>-22551.375</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>995.2</v>
+      </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3532,17 @@
         <v>-22570.4653</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>994.1</v>
+      </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3557,7 +3575,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3608,17 @@
         <v>-23073.1596</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>993.9</v>
+      </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +3647,17 @@
         <v>-19206.3285</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>991</v>
+      </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3686,17 @@
         <v>-19206.3285</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>992</v>
+      </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3725,17 @@
         <v>-24759.7953</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>992</v>
+      </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +3764,17 @@
         <v>-24641.96</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>991</v>
+      </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +3803,17 @@
         <v>-24641.96</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>992</v>
+      </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +3842,17 @@
         <v>-24641.96</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>992</v>
+      </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +3881,17 @@
         <v>-24641.96</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>992</v>
+      </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +3920,17 @@
         <v>-24641.96</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>992</v>
+      </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +3959,17 @@
         <v>-24641.96</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>992</v>
+      </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +3998,17 @@
         <v>-24641.96</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>992</v>
+      </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +4037,17 @@
         <v>-26942.9576</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>992</v>
+      </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3987,10 +4081,12 @@
       <c r="I109" t="n">
         <v>991</v>
       </c>
-      <c r="J109" t="n">
-        <v>991</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4019,15 +4115,15 @@
         <v>-30045.054</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>991</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>992</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L110" t="n">

--- a/BackTest/2020-01-23 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-23 BackTest WAVES.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M110"/>
+  <dimension ref="A1:L110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>37.8</v>
       </c>
       <c r="G2" t="n">
-        <v>-13529.3562</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1268.8545</v>
       </c>
       <c r="G3" t="n">
-        <v>-14798.2107</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>181.3999</v>
       </c>
       <c r="G4" t="n">
-        <v>-14979.6106</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>97.7068</v>
       </c>
       <c r="G5" t="n">
-        <v>-14979.6106</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>1038.1317</v>
       </c>
       <c r="G6" t="n">
-        <v>-16017.7423</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>440.57</v>
       </c>
       <c r="G7" t="n">
-        <v>-16458.3123</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>984</v>
       </c>
       <c r="G8" t="n">
-        <v>-16458.3123</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,19 @@
         <v>453.017</v>
       </c>
       <c r="G9" t="n">
-        <v>-16458.3123</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>988.1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>988.1</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +687,21 @@
         <v>38.5704</v>
       </c>
       <c r="G10" t="n">
-        <v>-16458.3123</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>988.1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +723,23 @@
         <v>1294.4337</v>
       </c>
       <c r="G11" t="n">
-        <v>-16458.3123</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>988.1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>988.1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +761,15 @@
         <v>324.8755</v>
       </c>
       <c r="G12" t="n">
-        <v>-16783.1878</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +791,19 @@
         <v>0.6</v>
       </c>
       <c r="G13" t="n">
-        <v>-16782.5878</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>984.2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>984.2</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +825,21 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>-16782.0278</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>984.2</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +861,21 @@
         <v>369</v>
       </c>
       <c r="G15" t="n">
-        <v>-17151.0278</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>984.2</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +897,15 @@
         <v>0.6</v>
       </c>
       <c r="G16" t="n">
-        <v>-17150.4278</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +927,15 @@
         <v>29.8507</v>
       </c>
       <c r="G17" t="n">
-        <v>-17180.2785</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +957,15 @@
         <v>105</v>
       </c>
       <c r="G18" t="n">
-        <v>-17075.2785</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +987,15 @@
         <v>127.8674</v>
       </c>
       <c r="G19" t="n">
-        <v>-16947.4111</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1017,15 @@
         <v>1.1778</v>
       </c>
       <c r="G20" t="n">
-        <v>-16946.2333</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1047,15 @@
         <v>2403.9687</v>
       </c>
       <c r="G21" t="n">
-        <v>-19350.202</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1077,15 @@
         <v>294.1693</v>
       </c>
       <c r="G22" t="n">
-        <v>-19056.0327</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1107,15 @@
         <v>1201.0256</v>
       </c>
       <c r="G23" t="n">
-        <v>-20257.0583</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1137,15 @@
         <v>66.7068</v>
       </c>
       <c r="G24" t="n">
-        <v>-20323.7651</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1167,15 @@
         <v>2678.9666</v>
       </c>
       <c r="G25" t="n">
-        <v>-17644.7985</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1197,15 @@
         <v>1142.3849</v>
       </c>
       <c r="G26" t="n">
-        <v>-18787.1834</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1227,15 @@
         <v>838.7808</v>
       </c>
       <c r="G27" t="n">
-        <v>-17948.4026</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1257,15 @@
         <v>1090.9279</v>
       </c>
       <c r="G28" t="n">
-        <v>-17948.4026</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1287,15 @@
         <v>893.554</v>
       </c>
       <c r="G29" t="n">
-        <v>-17948.4026</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1317,15 @@
         <v>1471.9948</v>
       </c>
       <c r="G30" t="n">
-        <v>-17948.4026</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1347,15 @@
         <v>228.4785</v>
       </c>
       <c r="G31" t="n">
-        <v>-17719.9241</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1377,15 @@
         <v>161.7982</v>
       </c>
       <c r="G32" t="n">
-        <v>-17719.9241</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1407,15 @@
         <v>5</v>
       </c>
       <c r="G33" t="n">
-        <v>-17724.9241</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1437,15 @@
         <v>794.4065000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>-16930.5176</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1467,15 @@
         <v>131.5899</v>
       </c>
       <c r="G35" t="n">
-        <v>-17062.10749999999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1497,15 @@
         <v>182.9453</v>
       </c>
       <c r="G36" t="n">
-        <v>-17062.10749999999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1527,15 @@
         <v>0.51</v>
       </c>
       <c r="G37" t="n">
-        <v>-17061.5975</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1557,15 @@
         <v>744.2604</v>
       </c>
       <c r="G38" t="n">
-        <v>-17805.8579</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1587,15 @@
         <v>1201.2772</v>
       </c>
       <c r="G39" t="n">
-        <v>-17805.8579</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1617,15 @@
         <v>175.8225</v>
       </c>
       <c r="G40" t="n">
-        <v>-17805.8579</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1647,15 @@
         <v>885.6201</v>
       </c>
       <c r="G41" t="n">
-        <v>-17805.8579</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1677,15 @@
         <v>5002.0491</v>
       </c>
       <c r="G42" t="n">
-        <v>-17805.8579</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1707,15 @@
         <v>5</v>
       </c>
       <c r="G43" t="n">
-        <v>-17800.8579</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1737,15 @@
         <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>-17790.8579</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1767,15 @@
         <v>489.3613</v>
       </c>
       <c r="G45" t="n">
-        <v>-18280.2192</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1797,15 @@
         <v>0.51</v>
       </c>
       <c r="G46" t="n">
-        <v>-18279.7092</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1827,15 @@
         <v>80.3974</v>
       </c>
       <c r="G47" t="n">
-        <v>-18360.1066</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1857,15 @@
         <v>2.1534</v>
       </c>
       <c r="G48" t="n">
-        <v>-18362.26</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1887,15 @@
         <v>0.51</v>
       </c>
       <c r="G49" t="n">
-        <v>-18361.75</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1917,15 @@
         <v>508.7014</v>
       </c>
       <c r="G50" t="n">
-        <v>-18870.4514</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1947,15 @@
         <v>0.51</v>
       </c>
       <c r="G51" t="n">
-        <v>-18869.9414</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1977,15 @@
         <v>10</v>
       </c>
       <c r="G52" t="n">
-        <v>-18879.9414</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2007,15 @@
         <v>21</v>
       </c>
       <c r="G53" t="n">
-        <v>-18858.9414</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2037,15 @@
         <v>0.4837</v>
       </c>
       <c r="G54" t="n">
-        <v>-18858.9414</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2067,15 @@
         <v>8.487299999999999</v>
       </c>
       <c r="G55" t="n">
-        <v>-18850.4541</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2097,15 @@
         <v>0.6</v>
       </c>
       <c r="G56" t="n">
-        <v>-18849.8541</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2127,15 @@
         <v>2</v>
       </c>
       <c r="G57" t="n">
-        <v>-18851.8541</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2157,15 @@
         <v>271.0813</v>
       </c>
       <c r="G58" t="n">
-        <v>-18580.7728</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2187,15 @@
         <v>83.10129999999999</v>
       </c>
       <c r="G59" t="n">
-        <v>-18580.7728</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2217,15 @@
         <v>47.2375</v>
       </c>
       <c r="G60" t="n">
-        <v>-18580.7728</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2247,15 @@
         <v>67.3038</v>
       </c>
       <c r="G61" t="n">
-        <v>-18580.7728</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2277,15 @@
         <v>31.732</v>
       </c>
       <c r="G62" t="n">
-        <v>-18580.7728</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2307,15 @@
         <v>50.7185</v>
       </c>
       <c r="G63" t="n">
-        <v>-18580.7728</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2337,15 @@
         <v>4.4057</v>
       </c>
       <c r="G64" t="n">
-        <v>-18585.1785</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2367,15 @@
         <v>100.0246</v>
       </c>
       <c r="G65" t="n">
-        <v>-18485.1539</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2397,15 @@
         <v>130.0509</v>
       </c>
       <c r="G66" t="n">
-        <v>-18485.1539</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2427,15 @@
         <v>76.6901</v>
       </c>
       <c r="G67" t="n">
-        <v>-18485.1539</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2457,15 @@
         <v>2</v>
       </c>
       <c r="G68" t="n">
-        <v>-18485.1539</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2487,15 @@
         <v>957.7307</v>
       </c>
       <c r="G69" t="n">
-        <v>-18485.1539</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2517,15 @@
         <v>1563.4347</v>
       </c>
       <c r="G70" t="n">
-        <v>-20048.5886</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2547,15 @@
         <v>1.65</v>
       </c>
       <c r="G71" t="n">
-        <v>-20046.9386</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2577,15 @@
         <v>2</v>
       </c>
       <c r="G72" t="n">
-        <v>-20048.9386</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2607,15 @@
         <v>794.4065000000001</v>
       </c>
       <c r="G73" t="n">
-        <v>-20843.3451</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2637,15 @@
         <v>1300</v>
       </c>
       <c r="G74" t="n">
-        <v>-20843.3451</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2667,15 @@
         <v>600</v>
       </c>
       <c r="G75" t="n">
-        <v>-20843.3451</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2697,15 @@
         <v>0.5374</v>
       </c>
       <c r="G76" t="n">
-        <v>-20842.8077</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2727,15 @@
         <v>89.2191</v>
       </c>
       <c r="G77" t="n">
-        <v>-20932.0268</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2757,15 @@
         <v>1038.6</v>
       </c>
       <c r="G78" t="n">
-        <v>-20932.0268</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2787,15 @@
         <v>90</v>
       </c>
       <c r="G79" t="n">
-        <v>-20842.0268</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2817,15 @@
         <v>803.6126</v>
       </c>
       <c r="G80" t="n">
-        <v>-20038.4142</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2847,15 @@
         <v>48.0518</v>
       </c>
       <c r="G81" t="n">
-        <v>-20086.466</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2877,15 @@
         <v>400.2025</v>
       </c>
       <c r="G82" t="n">
-        <v>-20086.466</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2907,15 @@
         <v>435</v>
       </c>
       <c r="G83" t="n">
-        <v>-20521.466</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2937,15 @@
         <v>1524.2419</v>
       </c>
       <c r="G84" t="n">
-        <v>-20521.466</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2967,15 @@
         <v>3416.9212</v>
       </c>
       <c r="G85" t="n">
-        <v>-20521.466</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2997,15 @@
         <v>0.5</v>
       </c>
       <c r="G86" t="n">
-        <v>-20520.966</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3027,15 @@
         <v>896.2089999999999</v>
       </c>
       <c r="G87" t="n">
-        <v>-21417.175</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3057,15 @@
         <v>1033.2</v>
       </c>
       <c r="G88" t="n">
-        <v>-22450.375</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3087,15 @@
         <v>280.1123</v>
       </c>
       <c r="G89" t="n">
-        <v>-22450.375</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3117,15 @@
         <v>24</v>
       </c>
       <c r="G90" t="n">
-        <v>-22474.375</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3147,15 @@
         <v>11</v>
       </c>
       <c r="G91" t="n">
-        <v>-22485.375</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3177,15 @@
         <v>11</v>
       </c>
       <c r="G92" t="n">
-        <v>-22496.375</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,24 +3207,15 @@
         <v>44</v>
       </c>
       <c r="G93" t="n">
-        <v>-22540.375</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>995.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3490,24 +3237,15 @@
         <v>11</v>
       </c>
       <c r="G94" t="n">
-        <v>-22551.375</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>995.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3529,24 +3267,15 @@
         <v>19.0903</v>
       </c>
       <c r="G95" t="n">
-        <v>-22570.4653</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>994.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3568,22 +3297,15 @@
         <v>203.6353</v>
       </c>
       <c r="G96" t="n">
-        <v>-22570.4653</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3605,24 +3327,15 @@
         <v>502.6943</v>
       </c>
       <c r="G97" t="n">
-        <v>-23073.1596</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>993.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3644,24 +3357,15 @@
         <v>3866.8311</v>
       </c>
       <c r="G98" t="n">
-        <v>-19206.3285</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>991</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3683,24 +3387,15 @@
         <v>417.0177</v>
       </c>
       <c r="G99" t="n">
-        <v>-19206.3285</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3722,24 +3417,15 @@
         <v>5553.4668</v>
       </c>
       <c r="G100" t="n">
-        <v>-24759.7953</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3761,24 +3447,15 @@
         <v>117.8353</v>
       </c>
       <c r="G101" t="n">
-        <v>-24641.96</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>991</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3800,24 +3477,15 @@
         <v>57.8573</v>
       </c>
       <c r="G102" t="n">
-        <v>-24641.96</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3839,24 +3507,15 @@
         <v>1004.8014</v>
       </c>
       <c r="G103" t="n">
-        <v>-24641.96</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3878,24 +3537,15 @@
         <v>2120.1834</v>
       </c>
       <c r="G104" t="n">
-        <v>-24641.96</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3917,24 +3567,15 @@
         <v>4525.4376</v>
       </c>
       <c r="G105" t="n">
-        <v>-24641.96</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3956,24 +3597,15 @@
         <v>1.7701</v>
       </c>
       <c r="G106" t="n">
-        <v>-24641.96</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3995,24 +3627,15 @@
         <v>65.7497</v>
       </c>
       <c r="G107" t="n">
-        <v>-24641.96</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4034,24 +3657,15 @@
         <v>2300.9976</v>
       </c>
       <c r="G108" t="n">
-        <v>-26942.9576</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4073,24 +3687,15 @@
         <v>4.2503</v>
       </c>
       <c r="G109" t="n">
-        <v>-26938.7073</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>991</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4112,24 +3717,15 @@
         <v>3106.3467</v>
       </c>
       <c r="G110" t="n">
-        <v>-30045.054</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
